--- a/HexData/ExampleDataTemplate.xlsx
+++ b/HexData/ExampleDataTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Documents\GitHub\SequencingSequences\HuffmanCodings\HexCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Mol.E-coder\HexData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94FAC0B-05F4-41B2-9E66-C9D66B7A656F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6329C310-37DD-4407-B0A3-D80CB961D541}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{4BCB3082-D71E-447B-A2C7-ED0A06A4C62C}"/>
+    <workbookView xWindow="-28800" yWindow="3405" windowWidth="28800" windowHeight="15435" xr2:uid="{4BCB3082-D71E-447B-A2C7-ED0A06A4C62C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -282,18 +282,12 @@
     <t>1670.7, 1493.6, 1376.6, 1273.6, 1088.4, 959.4, 782.3, 651.2, 458.2, 281.1</t>
   </si>
   <si>
-    <t>blank, 1715.5, 1504.5, 1327.4, 1198.4, 985.4, 802.2, 623.2, 410.1, 279.1</t>
-  </si>
-  <si>
     <t>1656.7, 1479.6, 1336.6, 1205.5, 1074.4, 929.3, 750.2, 573.2, 456.1, 327.1</t>
   </si>
   <si>
     <t>1758.7, 1581.5, 1370.5, 1187.4, 1056.4, 927.3, 750.3, 633.2, 504.2, 327.1</t>
   </si>
   <si>
-    <t>blank, 1673.8, 1482.6, 1303.6, 1120.5, 991.4, 848.3, 657.2, 512.2, 319.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">1171.4, 993.4, 800.2, 587.3, 444.2, 327.1 </t>
   </si>
   <si>
@@ -306,22 +300,28 @@
     <t>1688.7, 1511.6, 1380.5, 1201.4, 1072.4, 893.4, 778.3, 585.2, 456.1, 327.1</t>
   </si>
   <si>
-    <t>blank, 1640.3, 1446.7, 1317.5, 1140.5, 949.4, 832.3, 689.3, 510.2, 327.1</t>
-  </si>
-  <si>
-    <t>blank, 1651.6, 1440.6, 1227.5,  1082.5,  903.4,  772.3, 643.3, 498.2, 313.2</t>
-  </si>
-  <si>
     <t>1674.5, 1497.5, 1396.4, 1183.4, 1082.3, 951.3, 740.3, 527.2, 382.1, 253.1</t>
   </si>
   <si>
     <t>1686.6, 1509.6, 1364.5, 1261.4, 1146.4, 935.4, 758.3, 615.3, 472.2, 329.1</t>
   </si>
   <si>
-    <t>blank, 1655.8, 1444.7, 1261.5, 1130.5, 987.4, 796.3, 613.2, 498.2, 319.1</t>
-  </si>
-  <si>
-    <t>blank, 1728.9, 1542.7, 1365.6, 1152.5, 1007.5, 830.4, 637.4, 506.3, 321.1</t>
+    <t>1728.9, 1542.7, 1365.6, 1152.5, 1007.5, 830.4, 637.4, 506.3, 321.1</t>
+  </si>
+  <si>
+    <t>1651.6, 1440.6, 1227.5,  1082.5,  903.4,  772.3, 643.3, 498.2, 313.2</t>
+  </si>
+  <si>
+    <t>1673.8, 1482.6, 1303.6, 1120.5, 991.4, 848.3, 657.2, 512.2, 319.1</t>
+  </si>
+  <si>
+    <t>1640.3, 1446.7, 1317.5, 1140.5, 949.4, 832.3, 689.3, 510.2, 327.1</t>
+  </si>
+  <si>
+    <t>1655.8, 1444.7, 1261.5, 1130.5, 987.4, 796.3, 613.2, 498.2, 319.1</t>
+  </si>
+  <si>
+    <t>1715.5, 1504.5, 1327.4, 1198.4, 985.4, 802.2, 623.2, 410.1, 279.1</t>
   </si>
 </sst>
 </file>
@@ -745,12 +745,12 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -788,7 +788,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -826,7 +826,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -864,7 +864,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -902,7 +902,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
@@ -940,7 +940,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -978,9 +978,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="144" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>78</v>
@@ -992,48 +992,48 @@
         <v>80</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>81</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>94</v>
       </c>
       <c r="I7" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="J7" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L7" s="7" t="s">
+      <c r="C8" s="7" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="144" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>91</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G8" t="s">
         <v>72</v>

--- a/HexData/ExampleDataTemplate.xlsx
+++ b/HexData/ExampleDataTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Mol.E-coder\HexData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6329C310-37DD-4407-B0A3-D80CB961D541}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6CD9F8-D6DA-40D8-8865-CB01641C7062}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="3405" windowWidth="28800" windowHeight="15435" xr2:uid="{4BCB3082-D71E-447B-A2C7-ED0A06A4C62C}"/>
+    <workbookView xWindow="-28035" yWindow="2550" windowWidth="28800" windowHeight="15435" xr2:uid="{4BCB3082-D71E-447B-A2C7-ED0A06A4C62C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -282,53 +282,53 @@
     <t>1670.7, 1493.6, 1376.6, 1273.6, 1088.4, 959.4, 782.3, 651.2, 458.2, 281.1</t>
   </si>
   <si>
-    <t>1656.7, 1479.6, 1336.6, 1205.5, 1074.4, 929.3, 750.2, 573.2, 456.1, 327.1</t>
-  </si>
-  <si>
-    <t>1758.7, 1581.5, 1370.5, 1187.4, 1056.4, 927.3, 750.3, 633.2, 504.2, 327.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">1171.4, 993.4, 800.2, 587.3, 444.2, 327.1 </t>
   </si>
   <si>
-    <t>1660.7, 1483.7, 1340.6, 1209.7, 1024.4, 831.3, 688.3, 587.2, 410.1, 265.0</t>
-  </si>
-  <si>
-    <t>1700.7, 1523.6, 1344.5, 1167.5, 1066.5, 887.5, 702.3, 599.2, 470.1, 279.1</t>
-  </si>
-  <si>
     <t>1688.7, 1511.6, 1380.5, 1201.4, 1072.4, 893.4, 778.3, 585.2, 456.1, 327.1</t>
   </si>
   <si>
-    <t>1674.5, 1497.5, 1396.4, 1183.4, 1082.3, 951.3, 740.3, 527.2, 382.1, 253.1</t>
-  </si>
-  <si>
-    <t>1686.6, 1509.6, 1364.5, 1261.4, 1146.4, 935.4, 758.3, 615.3, 472.2, 329.1</t>
-  </si>
-  <si>
     <t>1728.9, 1542.7, 1365.6, 1152.5, 1007.5, 830.4, 637.4, 506.3, 321.1</t>
   </si>
   <si>
-    <t>1651.6, 1440.6, 1227.5,  1082.5,  903.4,  772.3, 643.3, 498.2, 313.2</t>
-  </si>
-  <si>
-    <t>1673.8, 1482.6, 1303.6, 1120.5, 991.4, 848.3, 657.2, 512.2, 319.1</t>
-  </si>
-  <si>
-    <t>1640.3, 1446.7, 1317.5, 1140.5, 949.4, 832.3, 689.3, 510.2, 327.1</t>
-  </si>
-  <si>
     <t>1655.8, 1444.7, 1261.5, 1130.5, 987.4, 796.3, 613.2, 498.2, 319.1</t>
   </si>
   <si>
-    <t>1715.5, 1504.5, 1327.4, 1198.4, 985.4, 802.2, 623.2, 410.1, 279.1</t>
+    <t>1660.8, 1483.7, 1352.6, 1209.7, 1024.4, 831.3, 688.3, 587.2, 410.1, 265.0</t>
+  </si>
+  <si>
+    <t>1700.7, 1523.6, 1344.5, 1167.5, 1066.5, 887.4, 702.3, 599.2, 470.2, 279.1</t>
+  </si>
+  <si>
+    <t>1816.6, 1639.7, 1446.6, 1317.5, 1140.5, 949.4, 832.2, 689.3, 510.1, 327.1</t>
+  </si>
+  <si>
+    <t>1674.5, 1497.4, 1396.4, 1183.4, 1082.4, 951.3, 740.2, 527.2, 382.1, 253.1</t>
+  </si>
+  <si>
+    <t>1892.5, 1715.5, 1504.5, 1327.5, 1198.4, 985.4, 802.3, 623.2, 410.2, 279.1</t>
+  </si>
+  <si>
+    <t>1656.7, 1479.6, 1348.6, 1205.5, 1074.4, 929.3, 750.3, 573.2, 456.1, 327.1</t>
+  </si>
+  <si>
+    <t>1686.6, 1509.6, 1364.5, 1261.5, 1146.4, 935.4, 758.3, 615.3, 472.1, 329.1</t>
+  </si>
+  <si>
+    <t>1758.7, 1581.6, 1370.6, 1187.5, 1056.4, 927.3, 750.3, 633.2, 504.1, 327.1</t>
+  </si>
+  <si>
+    <t>1828.7, 1651.7, 1440.6, 1227.6, 1082.6, 903.4, 772.4, 643.3, 498.2, 313.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1850.8, 1673.8, 1482.8, 1303.6, 1120.5, 991.4, 848.3, 657.3, 512.2, 319.1 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,6 +390,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -422,10 +427,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -745,7 +750,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,7 +985,7 @@
     </row>
     <row r="7" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>78</v>
@@ -992,48 +997,48 @@
         <v>80</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>86</v>
+      <c r="G7" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="J7" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>82</v>
+      <c r="J7" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="150" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="A8" s="9" t="s">
         <v>92</v>
       </c>
+      <c r="B8" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="F8" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G8" t="s">
         <v>72</v>

--- a/HexData/ExampleDataTemplate.xlsx
+++ b/HexData/ExampleDataTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Mol.E-coder\HexData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6CD9F8-D6DA-40D8-8865-CB01641C7062}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0533CE-B9DC-49B8-96B7-238CE8C90D42}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28035" yWindow="2550" windowWidth="28800" windowHeight="15435" xr2:uid="{4BCB3082-D71E-447B-A2C7-ED0A06A4C62C}"/>
+    <workbookView xWindow="4740" yWindow="1905" windowWidth="19260" windowHeight="15435" xr2:uid="{4BCB3082-D71E-447B-A2C7-ED0A06A4C62C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -294,9 +294,6 @@
     <t>1655.8, 1444.7, 1261.5, 1130.5, 987.4, 796.3, 613.2, 498.2, 319.1</t>
   </si>
   <si>
-    <t>1660.8, 1483.7, 1352.6, 1209.7, 1024.4, 831.3, 688.3, 587.2, 410.1, 265.0</t>
-  </si>
-  <si>
     <t>1700.7, 1523.6, 1344.5, 1167.5, 1066.5, 887.4, 702.3, 599.2, 470.2, 279.1</t>
   </si>
   <si>
@@ -309,9 +306,6 @@
     <t>1892.5, 1715.5, 1504.5, 1327.5, 1198.4, 985.4, 802.3, 623.2, 410.2, 279.1</t>
   </si>
   <si>
-    <t>1656.7, 1479.6, 1348.6, 1205.5, 1074.4, 929.3, 750.3, 573.2, 456.1, 327.1</t>
-  </si>
-  <si>
     <t>1686.6, 1509.6, 1364.5, 1261.5, 1146.4, 935.4, 758.3, 615.3, 472.1, 329.1</t>
   </si>
   <si>
@@ -322,6 +316,12 @@
   </si>
   <si>
     <t xml:space="preserve">1850.8, 1673.8, 1482.8, 1303.6, 1120.5, 991.4, 848.3, 657.3, 512.2, 319.1 </t>
+  </si>
+  <si>
+    <t>1660.8, 1483.7, 1340.6, 1209.7, 1024.4, 831.3, 688.3, 587.2, 410.1, 265.0</t>
+  </si>
+  <si>
+    <t>1656.7, 1479.6, 1336.6, 1205.5, 1074.4, 929.3, 750.3, 573.2, 456.1, 327.1</t>
   </si>
 </sst>
 </file>
@@ -750,7 +750,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -997,45 +997,45 @@
         <v>80</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>81</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>85</v>
       </c>
       <c r="I7" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="K7" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="K7" s="9" t="s">
-        <v>90</v>
-      </c>
       <c r="L7" s="9" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>84</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>95</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>82</v>
